--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B5F5BC-852E-4994-872A-CD1F442D2AD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD896598-5F7F-4484-8DB7-B75581AE3BEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9420" xr2:uid="{AB8E5587-4410-44EB-83EA-02A12353199D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AZ$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$BD$13</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -28,117 +28,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+  <si>
+    <t>申报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给师傅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48H红线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>ATD</t>
   </si>
   <si>
     <t>CHSI1812033</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提罐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请付费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保函</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给师傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填报销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票录系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舱单&amp;费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48H红线</t>
+    <t>JJ SUN 1851W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJSMJSHMNC8Z010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日陆 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船名航次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRSU1815962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打提单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打保函</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舱单付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,6 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm/dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,78 +490,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -540,7 +610,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,161 +906,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673134D9-FB30-42AA-8119-46CDA995F42A}">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AT4" sqref="AT4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="52" width="2.5" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="56" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="22" t="s">
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="22" t="s">
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="18"/>
-      <c r="W1" s="22" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="5"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="4"/>
     </row>
-    <row r="2" spans="1:52" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="23" t="s">
+    <row r="2" spans="1:56" ht="72.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="23"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="15"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -1008,76 +1090,112 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
-      <c r="AZ2" s="6"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="5"/>
     </row>
-    <row r="3" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+    <row r="3" spans="1:56" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43461</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="23">
+        <v>43459</v>
+      </c>
+      <c r="H3" s="24">
+        <v>43464</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
       <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="7"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="28"/>
     </row>
-    <row r="4" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1086,18 +1204,18 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="16"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -1118,20 +1236,24 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1"/>
-      <c r="AZ4" s="7"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="6"/>
     </row>
-    <row r="5" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+    <row r="5" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1140,18 +1262,18 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="16"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -1172,20 +1294,24 @@
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
-      <c r="AZ5" s="7"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="6"/>
     </row>
-    <row r="6" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1194,18 +1320,18 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="16"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1226,20 +1352,24 @@
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
-      <c r="AZ6" s="7"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="6"/>
     </row>
-    <row r="7" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+    <row r="7" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1248,18 +1378,18 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="16"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1280,20 +1410,24 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
-      <c r="AZ7" s="7"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="6"/>
     </row>
-    <row r="8" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+    <row r="8" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1302,18 +1436,18 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="16"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1334,20 +1468,24 @@
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1"/>
-      <c r="AZ8" s="7"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="6"/>
     </row>
-    <row r="9" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+    <row r="9" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1356,18 +1494,18 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="16"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1388,20 +1526,24 @@
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
-      <c r="AZ9" s="7"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="6"/>
     </row>
-    <row r="10" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+    <row r="10" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1410,18 +1552,18 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="16"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -1442,20 +1584,24 @@
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
-      <c r="AZ10" s="7"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="6"/>
     </row>
-    <row r="11" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+    <row r="11" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1464,18 +1610,18 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="16"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1496,20 +1642,24 @@
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
-      <c r="AZ11" s="7"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="6"/>
     </row>
-    <row r="12" spans="1:52" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+    <row r="12" spans="1:56" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1518,18 +1668,18 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="16"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -1550,72 +1700,80 @@
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
-      <c r="AZ12" s="7"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="6"/>
     </row>
-    <row r="13" spans="1:52" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="9"/>
+    <row r="13" spans="1:56" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD0592F-3AE8-498C-B81E-ECAC82CC7334}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DA699-A1C9-4E10-A66B-632385D49313}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>危申报</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,46 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINOTRANS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1902001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASIATIC WAVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1904W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC9YMCERD1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6109243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +425,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,15 +467,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -514,18 +545,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -535,9 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -587,9 +609,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -599,29 +618,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -650,14 +672,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="64">
+    <dxf>
+      <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -690,264 +724,345 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode="mm/dd\ hh:mm;;;@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="177" formatCode="mm/dd\ hh:mm"/>
       <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="177" formatCode="mm/dd\ hh:mm"/>
       <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <numFmt numFmtId="177" formatCode="mm/dd\ hh:mm"/>
       <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="3"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ hh:mm"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <family val="3"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="mm/dd\ hh:mm"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -974,6 +1089,9 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -995,6 +1113,37 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1010,55 +1159,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627A25BD-9213-4FD0-8D59-10B435148C78}" name="Table1" displayName="Table1" ref="A3:AU6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{627A25BD-9213-4FD0-8D59-10B435148C78}" name="Table1" displayName="Table1" ref="A3:AU9" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <tableColumns count="47">
-    <tableColumn id="3" xr3:uid="{AE8BA538-0376-4F34-AF6E-70DC2ED90ABD}" name="业务编号 " dataDxfId="55"/>
-    <tableColumn id="1" xr3:uid="{6CBF9C7F-A75D-4874-9CEF-A011A1FA49B2}" name="到单时间" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{CE47B374-5702-4E50-BD2E-F261CC8F275A}" name="客户" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{0526D858-DD8B-45FF-BA0D-561C27A62B97}" name="船公司" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{1DD22C5D-9AB3-48B8-99CB-BA558E50712F}" name="船名" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{660FE343-A342-44E7-824F-7EAE6FD5C3EE}" name="航次" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{AD8A4EF4-9B37-4300-9E65-157D4B69C501}" name="提单号" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{72E6257A-F2CC-4E5B-ADB0-53B3B7510C98}" name="箱号" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{A7217958-5BEF-4B69-8F55-4B6F0372F173}" name="申报单位" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{C5CA2292-8A45-4329-9BF7-4751B5643273}" name="发资料" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{8B7E98B1-B5F2-48CC-BED8-4BBB8D876225}" name="申报单" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{8926C90A-C595-4B5E-A920-1F4EC19A3DFA}" name="电放确认" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{0A6DF847-3523-4B15-BBDF-9058B303978F}" name="资料准备" dataDxfId="43"/>
-    <tableColumn id="47" xr3:uid="{9A1B78CD-83E9-45DE-A6C0-BB270916A4C3}" name="出费用"/>
-    <tableColumn id="46" xr3:uid="{8083614D-B664-4535-9CD1-DD93B717335E}" name="可换"/>
-    <tableColumn id="16" xr3:uid="{509FEAF8-9345-4BD4-9A8A-A046FAD322C9}" name="付费申请" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{7DF3E2B7-8384-4607-9CC9-6D64A0E4727B}" name="付费" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{DD399145-A3CF-488C-91EB-8DFBCB19D918}" name="交师傅" dataDxfId="40"/>
-    <tableColumn id="44" xr3:uid="{A3CE28C5-9310-4D5E-9FF8-AB96D6561426}" name="留箱申请" dataDxfId="39"/>
-    <tableColumn id="45" xr3:uid="{8DDBCF8D-579F-4121-A948-7D47CFC1F979}" name="到报关行" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{51FD943C-C898-452F-841D-99EB87E72B30}" name="提货单" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{3457D5DD-769B-4BD1-B2F9-F6F0A2EF0E34}" name="港区" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{41734E74-73B8-44F0-A49D-F22A394F3CB1}" name="预计靠泊" dataDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{F46D176B-8654-4462-9ACB-1F83C8A6C726}" name="实际靠泊" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{B6281EAE-71DC-470F-9967-CAB993D14C20}" name="卸船进场" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{3D2FF432-193D-451C-9F2B-157FF0AAC650}" name="海放" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{FD6FEB83-DB69-4057-9A0D-95BB36FDCC0E}" name="计划类型" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{B671041F-F7FF-40BE-AD64-8C11A7E02A90}" name="理货资料" dataDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{A1609F35-2355-407B-96EF-E25FF8CB91D6}" name="交师傅2" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{4F2A9EFA-2848-4DE8-B727-E882E5F0D62C}" name="抵港确报" dataDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{1322EDB0-3669-4BD1-96DD-4CE4E0099263}" name="送资料" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{98B31AB7-7B5F-4610-90A9-94DD88E67CC3}" name="理货公司"/>
-    <tableColumn id="29" xr3:uid="{C0FF49A9-0B77-437A-915C-885390F1BAA8}" name="海关理货" dataDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{D0DAB5AF-100B-4C3B-A96F-5F55928C0DC4}" name="报关行" dataDxfId="25"/>
-    <tableColumn id="31" xr3:uid="{9BED309C-C53F-4F51-88FB-2851BE6D3233}" name="发资料3" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{D8E3119E-6472-44E1-9265-FE4B13E2625C}" name="通知报关" dataDxfId="23"/>
-    <tableColumn id="33" xr3:uid="{344644E3-1F4F-4837-BDE7-997B895666B7}" name="报关完成" dataDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{EC4F0DB8-8F66-480A-AD60-BF0DA303CE50}" name="报关单" dataDxfId="21"/>
-    <tableColumn id="35" xr3:uid="{C7A5E7FD-2F4A-48A6-814B-A61A46304C0F}" name="车队" dataDxfId="20"/>
-    <tableColumn id="36" xr3:uid="{5D7A481D-0508-408A-A83B-25FD6A749936}" name="预约车辆" dataDxfId="19"/>
-    <tableColumn id="37" xr3:uid="{C9AAC646-D79B-4AAB-8260-4F6AE97D70B4}" name="通知取单" dataDxfId="18"/>
-    <tableColumn id="38" xr3:uid="{BD728C7F-6615-4759-AF9B-80FDB7B28857}" name="排计划" dataDxfId="17"/>
-    <tableColumn id="39" xr3:uid="{5D891B9C-9D68-457D-862B-CF969F0944CB}" name="提罐" dataDxfId="16"/>
-    <tableColumn id="40" xr3:uid="{EEADF6B0-69B8-4509-B134-3AD87D440D8C}" name="送罐" dataDxfId="15"/>
-    <tableColumn id="41" xr3:uid="{0739A5C4-C759-43B6-832A-6BD3EA6E7A54}" name="堆场" dataDxfId="14"/>
-    <tableColumn id="42" xr3:uid="{BDBC12F8-59BA-4F1B-B443-0B5DB1D5EC94}" name="进罐申请" dataDxfId="13"/>
-    <tableColumn id="43" xr3:uid="{8C9869D2-FD49-45EB-9288-C39D88DF4A22}" name="进场确认" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AE8BA538-0376-4F34-AF6E-70DC2ED90ABD}" name="业务编号 " dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{6CBF9C7F-A75D-4874-9CEF-A011A1FA49B2}" name="到单时间" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{CE47B374-5702-4E50-BD2E-F261CC8F275A}" name="客户" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{0526D858-DD8B-45FF-BA0D-561C27A62B97}" name="船公司" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{1DD22C5D-9AB3-48B8-99CB-BA558E50712F}" name="船名" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{660FE343-A342-44E7-824F-7EAE6FD5C3EE}" name="航次" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{AD8A4EF4-9B37-4300-9E65-157D4B69C501}" name="提单号" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{72E6257A-F2CC-4E5B-ADB0-53B3B7510C98}" name="箱号" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{A7217958-5BEF-4B69-8F55-4B6F0372F173}" name="申报单位" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{C5CA2292-8A45-4329-9BF7-4751B5643273}" name="发资料" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{8B7E98B1-B5F2-48CC-BED8-4BBB8D876225}" name="申报单" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{8926C90A-C595-4B5E-A920-1F4EC19A3DFA}" name="电放确认" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{0A6DF847-3523-4B15-BBDF-9058B303978F}" name="资料准备" dataDxfId="42"/>
+    <tableColumn id="47" xr3:uid="{9A1B78CD-83E9-45DE-A6C0-BB270916A4C3}" name="出费用" dataDxfId="41"/>
+    <tableColumn id="46" xr3:uid="{8083614D-B664-4535-9CD1-DD93B717335E}" name="可换" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{509FEAF8-9345-4BD4-9A8A-A046FAD322C9}" name="付费申请" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{7DF3E2B7-8384-4607-9CC9-6D64A0E4727B}" name="付费" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{DD399145-A3CF-488C-91EB-8DFBCB19D918}" name="交师傅" dataDxfId="37"/>
+    <tableColumn id="44" xr3:uid="{A3CE28C5-9310-4D5E-9FF8-AB96D6561426}" name="留箱申请" dataDxfId="36"/>
+    <tableColumn id="45" xr3:uid="{8DDBCF8D-579F-4121-A948-7D47CFC1F979}" name="到报关行" dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{51FD943C-C898-452F-841D-99EB87E72B30}" name="提货单" dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{3457D5DD-769B-4BD1-B2F9-F6F0A2EF0E34}" name="港区" dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{41734E74-73B8-44F0-A49D-F22A394F3CB1}" name="预计靠泊" dataDxfId="32"/>
+    <tableColumn id="21" xr3:uid="{F46D176B-8654-4462-9ACB-1F83C8A6C726}" name="实际靠泊" dataDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{B6281EAE-71DC-470F-9967-CAB993D14C20}" name="卸船进场" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{3D2FF432-193D-451C-9F2B-157FF0AAC650}" name="海放" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{FD6FEB83-DB69-4057-9A0D-95BB36FDCC0E}" name="计划类型" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{B671041F-F7FF-40BE-AD64-8C11A7E02A90}" name="理货资料" dataDxfId="27"/>
+    <tableColumn id="26" xr3:uid="{A1609F35-2355-407B-96EF-E25FF8CB91D6}" name="交师傅2" dataDxfId="26"/>
+    <tableColumn id="27" xr3:uid="{4F2A9EFA-2848-4DE8-B727-E882E5F0D62C}" name="抵港确报" dataDxfId="25"/>
+    <tableColumn id="28" xr3:uid="{1322EDB0-3669-4BD1-96DD-4CE4E0099263}" name="送资料" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{98B31AB7-7B5F-4610-90A9-94DD88E67CC3}" name="理货公司" dataDxfId="23"/>
+    <tableColumn id="29" xr3:uid="{C0FF49A9-0B77-437A-915C-885390F1BAA8}" name="海关理货" dataDxfId="22"/>
+    <tableColumn id="30" xr3:uid="{D0DAB5AF-100B-4C3B-A96F-5F55928C0DC4}" name="报关行" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{9BED309C-C53F-4F51-88FB-2851BE6D3233}" name="发资料3" dataDxfId="20"/>
+    <tableColumn id="32" xr3:uid="{D8E3119E-6472-44E1-9265-FE4B13E2625C}" name="通知报关" dataDxfId="19"/>
+    <tableColumn id="33" xr3:uid="{344644E3-1F4F-4837-BDE7-997B895666B7}" name="报关完成" dataDxfId="18"/>
+    <tableColumn id="34" xr3:uid="{EC4F0DB8-8F66-480A-AD60-BF0DA303CE50}" name="报关单" dataDxfId="17"/>
+    <tableColumn id="35" xr3:uid="{C7A5E7FD-2F4A-48A6-814B-A61A46304C0F}" name="车队" dataDxfId="16"/>
+    <tableColumn id="36" xr3:uid="{5D7A481D-0508-408A-A83B-25FD6A749936}" name="预约车辆" dataDxfId="15"/>
+    <tableColumn id="37" xr3:uid="{C9AAC646-D79B-4AAB-8260-4F6AE97D70B4}" name="通知取单" dataDxfId="14"/>
+    <tableColumn id="38" xr3:uid="{BD728C7F-6615-4759-AF9B-80FDB7B28857}" name="排计划" dataDxfId="13"/>
+    <tableColumn id="39" xr3:uid="{5D891B9C-9D68-457D-862B-CF969F0944CB}" name="提罐" dataDxfId="12"/>
+    <tableColumn id="40" xr3:uid="{EEADF6B0-69B8-4509-B134-3AD87D440D8C}" name="送罐" dataDxfId="11"/>
+    <tableColumn id="41" xr3:uid="{0739A5C4-C759-43B6-832A-6BD3EA6E7A54}" name="堆场" dataDxfId="10"/>
+    <tableColumn id="42" xr3:uid="{BDBC12F8-59BA-4F1B-B443-0B5DB1D5EC94}" name="进罐申请" dataDxfId="9"/>
+    <tableColumn id="43" xr3:uid="{8C9869D2-FD49-45EB-9288-C39D88DF4A22}" name="进场确认" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1068,12 +1217,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5549A254-7E67-4A60-BAB5-4019CB10BB6C}" name="Table2" displayName="Table2" ref="B1:E48" totalsRowShown="0">
   <autoFilter ref="B1:E48" xr:uid="{B872CABA-5F9F-4A45-9A02-B2CFAF5E8EEF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C0D83649-ECF3-4051-A2B4-181AF2D2CF8A}" name="动作" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{C0D83649-ECF3-4051-A2B4-181AF2D2CF8A}" name="动作" dataDxfId="3">
       <calculatedColumnFormula>INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E46969E5-1A5A-430F-999E-5C1A5A3593D9}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CE805905-9901-4D25-ACF3-0484E9ED54A4}" name="Column2" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A2AF584C-3208-4F9B-9551-FAB19B3524B5}" name="Column3" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{E46969E5-1A5A-430F-999E-5C1A5A3593D9}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CE805905-9901-4D25-ACF3-0484E9ED54A4}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A2AF584C-3208-4F9B-9551-FAB19B3524B5}" name="Column3" dataDxfId="0">
       <calculatedColumnFormula>INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1378,13 +1527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0380F85-9081-4B09-86DE-E8E792D7A228}">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AV23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL5" sqref="AL5"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1393,146 +1542,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="36">
+      <c r="F1" s="33">
         <f ca="1">TODAY()-1</f>
-        <v>43494</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="18"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="22" t="s">
+        <v>43497</v>
+      </c>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="36">
+      <c r="M1" s="33">
         <f ca="1">TODAY()</f>
-        <v>43495</v>
-      </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="22" t="s">
+        <v>43498</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="36">
+      <c r="S1" s="33">
         <f ca="1">NOW()</f>
-        <v>43495.689266782407</v>
-      </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="22" t="s">
+        <v>43498.589359953701</v>
+      </c>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="36">
+      <c r="Z1" s="33">
         <f ca="1">TODAY()+1</f>
-        <v>43496</v>
-      </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="22" t="s">
+        <v>43499</v>
+      </c>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="36">
+      <c r="AI1" s="33">
         <f ca="1">TODAY()+1</f>
-        <v>43496</v>
-      </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="22" t="s">
+        <v>43499</v>
+      </c>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="36">
+      <c r="AQ1" s="33">
         <f ca="1">TODAY()+2</f>
-        <v>43497</v>
-      </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
+        <v>43500</v>
+      </c>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="40" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="40" t="s">
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="39" t="s">
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="40" t="s">
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="5"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="3"/>
     </row>
     <row r="3" spans="1:48" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1541,7 +1690,7 @@
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1559,7 +1708,7 @@
       <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1568,7 +1717,7 @@
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1598,7 +1747,7 @@
       <c r="U3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W3" s="1" t="s">
@@ -1616,7 +1765,7 @@
       <c r="AA3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -1634,7 +1783,7 @@
       <c r="AG3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AI3" s="1" t="s">
@@ -1649,7 +1798,7 @@
       <c r="AL3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AM3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AN3" s="1" t="s">
@@ -1667,7 +1816,7 @@
       <c r="AR3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AT3" s="1" t="s">
@@ -1676,1053 +1825,1361 @@
       <c r="AU3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="5"/>
+      <c r="AV3" s="3"/>
     </row>
     <row r="4" spans="1:48" ht="93" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="25">
         <v>43493.462500000001</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="24">
+      <c r="L4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="25">
         <v>43493.576388888891</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="25">
         <v>43494.467361111114</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="25">
         <v>43494.467361111114</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="25">
         <v>43494.46875</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="25">
         <v>43494.472222222219</v>
       </c>
-      <c r="R4" s="24">
+      <c r="R4" s="25">
         <v>43493.576388888891</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="25">
         <v>43493.73541666667</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="25">
         <v>43494.701388888891</v>
       </c>
-      <c r="U4" s="24">
+      <c r="U4" s="25">
         <v>43494.701388888891</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="25">
         <v>43495.3125</v>
       </c>
-      <c r="X4" s="24">
+      <c r="X4" s="25">
         <v>43495.3125</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="25">
         <v>43495.359027777777</v>
       </c>
-      <c r="Z4" s="24">
+      <c r="Z4" s="25">
         <v>43495.669444444444</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="30">
         <v>43493.576388888891</v>
       </c>
-      <c r="AC4" s="24">
+      <c r="AC4" s="25">
         <v>43493.576388888891</v>
       </c>
-      <c r="AD4" s="24">
+      <c r="AD4" s="25">
         <v>43495.59652777778</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="25">
         <v>43495.59652777778</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4" s="25">
         <v>43495.614016203705</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4" s="25">
         <v>43495.646527777775</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AI4" s="25">
         <v>43493</v>
       </c>
-      <c r="AJ4" s="24">
+      <c r="AJ4" s="25">
         <v>43495.647222222222</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4" s="25">
         <v>43495.669444444444</v>
       </c>
-      <c r="AL4" s="34" t="s">
+      <c r="AL4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" s="24">
+      <c r="AN4" s="25">
         <v>43493.677083333336</v>
       </c>
-      <c r="AO4" s="24">
+      <c r="AO4" s="25">
         <v>43495.67083333333</v>
       </c>
-      <c r="AP4" s="24">
+      <c r="AP4" s="25">
         <v>43495.675694444442</v>
       </c>
-      <c r="AQ4" s="24">
-        <v>43496.583333333336</v>
-      </c>
-      <c r="AR4" s="24">
-        <v>43496.625</v>
-      </c>
-      <c r="AS4" s="31" t="s">
+      <c r="AQ4" s="25">
+        <v>43496.253472222219</v>
+      </c>
+      <c r="AR4" s="25">
+        <v>43497.583333333336</v>
+      </c>
+      <c r="AS4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AT4" s="24">
+      <c r="AT4" s="25">
         <v>43494.396527777775</v>
       </c>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="5"/>
-    </row>
-    <row r="5" spans="1:48" ht="98.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" ht="69" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="3"/>
+    </row>
+    <row r="6" spans="1:48" ht="98.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B6" s="25">
         <v>43473</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="L6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="25">
         <v>43493.416666666664</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N6" s="25">
         <v>43494.583333333336</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O6" s="25">
         <v>43494.583333333336</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P6" s="25">
         <v>43494.583333333336</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q6" s="25">
         <v>43494.583333333336</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R6" s="25">
         <v>43495.395833333336</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="31" t="s">
+      <c r="S6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W6" s="25">
         <v>43496.666666666664</v>
       </c>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="28">
+      <c r="X6" s="25">
+        <v>43496.708333333336</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>43497.175694444442</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>43497.404166666667</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="30">
         <v>43493.416666666664</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC6" s="25">
         <v>43495.395833333336</v>
       </c>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="31" t="s">
+      <c r="AD6" s="25">
+        <v>43497.375</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>43497.375</v>
+      </c>
+      <c r="AF6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AI5" s="24">
+      <c r="AI6" s="25">
         <v>43493.419351851851</v>
       </c>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="31" t="s">
+      <c r="AJ6" s="25">
+        <v>43497.386111111111</v>
+      </c>
+      <c r="AK6" s="25">
+        <v>43497.411111111112</v>
+      </c>
+      <c r="AL6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN6" s="25">
         <v>43493.710416666669</v>
       </c>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="31" t="s">
+      <c r="AO6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP6" s="25">
+        <v>43497.419444444444</v>
+      </c>
+      <c r="AQ6" s="25">
+        <v>43497.583333333336</v>
+      </c>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="5"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="5"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="5"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="5"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="5"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="3"/>
+    </row>
+    <row r="7" spans="1:48" ht="69" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="3"/>
+    </row>
+    <row r="8" spans="1:48" ht="97.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="25">
+        <v>43497.663194444445</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="25">
+        <v>43497.718668981484</v>
+      </c>
+      <c r="K8" s="25">
+        <v>43498.397199074076</v>
+      </c>
+      <c r="L8" s="30">
+        <v>43498.412499999999</v>
+      </c>
+      <c r="M8" s="25">
+        <v>43498.439583333333</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="25">
+        <v>43498.916666666664</v>
+      </c>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="30">
+        <v>43498.439583333333</v>
+      </c>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="3"/>
+    </row>
+    <row r="9" spans="1:48" ht="69" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="3"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="3"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="3"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="3"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="3"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="3"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="3"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="3"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="3"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="3"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="3"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="3"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="3"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2742,20 +3199,20 @@
     <mergeCell ref="AI1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:AU6">
-    <cfRule type="cellIs" dxfId="7" priority="60" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="A4:AU9">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="between">
       <formula>$F$1</formula>
       <formula>$M$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="61" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="between">
       <formula>$M$1</formula>
       <formula>$S$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="62" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="62" stopIfTrue="1" operator="between">
       <formula>$S$1</formula>
       <formula>$Z$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="63" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="63" stopIfTrue="1" operator="between">
       <formula>$AI$1</formula>
       <formula>$AQ$1</formula>
     </cfRule>
@@ -2780,7 +3237,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -2802,907 +3259,907 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9" t="str">
+      <c r="B2" s="6" t="str">
         <f t="shared" ref="B2:B46" ca="1" si="0">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v xml:space="preserve">业务编号 </v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="11" t="str">
         <f ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v>CHSI1901026</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="7" t="str">
+        <f ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
+        <v>CHSI1901026</v>
+      </c>
+      <c r="E2" s="7" t="str">
         <f ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v>CHSI1901007</v>
       </c>
-      <c r="E2" s="10">
-        <f ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="5" t="str">
+      <c r="A3" s="40"/>
+      <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>到单时间</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:E46" ca="1" si="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v>43493.462500000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43473</v>
       </c>
-      <c r="E3" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="5" t="str">
+      <c r="A4" s="40"/>
+      <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>客户</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>柯豪</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>永泰天极</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="5" t="str">
+      <c r="A5" s="40"/>
+      <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>船公司</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>COSCO</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MAERSK</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="5" t="str">
+      <c r="A6" s="40"/>
+      <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>船名</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>TACOMA TRADER</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MAYVIEW MAERSK</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="5" t="str">
+      <c r="A7" s="40"/>
+      <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>航次</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>013W</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>852E</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="40"/>
+      <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>提单号</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>PASU5140415480</v>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>967219665-</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="12" t="str">
+      <c r="A9" s="41"/>
+      <c r="B9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>箱号</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>SEAU1224040</v>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>CRWU2000597</v>
       </c>
-      <c r="E9" s="13">
-        <f t="shared" ca="1" si="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>申报单位</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>船公司</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>客户</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="5" t="str">
+      <c r="A11" s="40"/>
+      <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>发资料</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>无</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>无</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="12" t="str">
+      <c r="A12" s="41"/>
+      <c r="B12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>申报单</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>无</v>
       </c>
-      <c r="D12" s="13" t="str">
+      <c r="D12" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>无</v>
       </c>
-      <c r="E12" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>电放确认</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>OK</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>OK</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="E13" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="5" t="str">
+      <c r="A14" s="40"/>
+      <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>资料准备</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.576388888891</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.416666666664</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="5" t="str">
+      <c r="A15" s="40"/>
+      <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>出费用</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.467361111114</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.583333333336</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="5" t="str">
+      <c r="A16" s="40"/>
+      <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>可换</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.467361111114</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.583333333336</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="5" t="str">
+      <c r="A17" s="40"/>
+      <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>付费申请</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.46875</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.583333333336</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="5" t="str">
+      <c r="A18" s="40"/>
+      <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>付费</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.472222222219</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.583333333336</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="5" t="str">
+      <c r="A19" s="40"/>
+      <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>交师傅</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.576388888891</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.395833333336</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="5" t="str">
+      <c r="A20" s="40"/>
+      <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>留箱申请</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.73541666667</v>
       </c>
-      <c r="D20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D20" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>袁</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="5" t="str">
+      <c r="A21" s="40"/>
+      <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>到报关行</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.701388888891</v>
       </c>
-      <c r="D21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D21" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>袁</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="5" t="str">
+      <c r="A22" s="40"/>
+      <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>提货单</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43494.701388888891</v>
       </c>
-      <c r="D22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D22" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>袁</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>港区</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>明东外五</v>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E23" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>盛东洋一</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="5" t="str">
+      <c r="A24" s="40"/>
+      <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>预计靠泊</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.3125</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43496.666666666664</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="5" t="str">
+      <c r="A25" s="40"/>
+      <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>实际靠泊</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.3125</v>
       </c>
-      <c r="D25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D25" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43496.708333333336</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="5" t="str">
+      <c r="A26" s="40"/>
+      <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>卸船进场</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.359027777777</v>
       </c>
-      <c r="D26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D26" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.175694444442</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="5" t="str">
+      <c r="A27" s="40"/>
+      <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>海放</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.669444444444</v>
       </c>
-      <c r="D27" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D27" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.404166666667</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="12" t="str">
+      <c r="A28" s="41"/>
+      <c r="B28" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>计划类型</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>提进口重箱</v>
       </c>
-      <c r="D28" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D28" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E28" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>提进口重箱</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="9" t="str">
+      <c r="B29" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>理货资料</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>43493.576388888891</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>43493.416666666664</v>
       </c>
-      <c r="E29" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="5" t="str">
+      <c r="A30" s="40"/>
+      <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>交师傅2</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.576388888891</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.395833333336</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="5" t="str">
+      <c r="A31" s="40"/>
+      <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>抵港确报</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.59652777778</v>
       </c>
-      <c r="D31" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D31" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.375</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="26" t="str">
+      <c r="A32" s="40"/>
+      <c r="B32" s="22" t="str">
         <f ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v>送资料</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.59652777778</v>
       </c>
-      <c r="D32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D32" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.375</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="5" t="str">
+      <c r="A33" s="40"/>
+      <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>理货公司</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.614016203705</v>
       </c>
-      <c r="D33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D33" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E33" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>无</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="12" t="str">
+      <c r="A34" s="41"/>
+      <c r="B34" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>海关理货</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>43495.646527777775</v>
       </c>
-      <c r="D34" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D34" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E34" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>无</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="9" t="str">
+      <c r="B35" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>报关行</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>黄燕</v>
       </c>
-      <c r="D35" s="10" t="str">
+      <c r="D35" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>黄燕</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="5" t="str">
+      <c r="A36" s="40"/>
+      <c r="B36" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>发资料3</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E36" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.419351851851</v>
       </c>
-      <c r="E36" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="5" t="str">
+      <c r="A37" s="40"/>
+      <c r="B37" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>通知报关</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.647222222222</v>
       </c>
-      <c r="D37" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D37" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.386111111111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="5" t="str">
+      <c r="A38" s="40"/>
+      <c r="B38" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>报关完成</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.669444444444</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D38" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.411111111112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="12" t="str">
+      <c r="A39" s="41"/>
+      <c r="B39" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>报关单</v>
       </c>
-      <c r="C39" s="13" t="str">
+      <c r="C39" s="10" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>无</v>
       </c>
-      <c r="D39" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D39" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>无</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="9" t="str">
+      <c r="B40" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>车队</v>
       </c>
-      <c r="C40" s="10" t="str">
+      <c r="C40" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>李</v>
       </c>
-      <c r="D40" s="10" t="str">
+      <c r="D40" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>胡海</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="5" t="str">
+      <c r="A41" s="40"/>
+      <c r="B41" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>预约车辆</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.677083333336</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E41" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43493.710416666669</v>
       </c>
-      <c r="E41" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="5" t="str">
+      <c r="A42" s="40"/>
+      <c r="B42" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>通知取单</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.67083333333</v>
       </c>
-      <c r="D42" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D42" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E42" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>已快递</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="43"/>
-      <c r="B43" s="5" t="str">
+      <c r="A43" s="40"/>
+      <c r="B43" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>排计划</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>43495.675694444442</v>
       </c>
-      <c r="D43" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="D43" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.419444444444</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="43"/>
-      <c r="B44" s="5" t="str">
+      <c r="A44" s="40"/>
+      <c r="B44" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>提罐</v>
       </c>
-      <c r="C44" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>43496.583333333336</v>
-      </c>
-      <c r="D44" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+      <c r="C44" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43496.253472222219</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.583333333336</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="12" t="str">
+      <c r="A45" s="41"/>
+      <c r="B45" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>送罐</v>
       </c>
-      <c r="C45" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>43496.625</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="C45" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>43497.583333333336</v>
+      </c>
+      <c r="D45" s="10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>OK</v>
+      </c>
+      <c r="E45" s="10">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="9" t="str">
+      <c r="B46" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>堆场</v>
       </c>
-      <c r="C46" s="10" t="str">
+      <c r="C46" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>南通通盛南路</v>
       </c>
-      <c r="D46" s="10" t="str">
+      <c r="D46" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>易锦</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="26" t="str">
+      <c r="A47" s="40"/>
+      <c r="B47" s="22" t="str">
         <f t="shared" ref="B47:B48" ca="1" si="2">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v>进罐申请</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8">
         <f t="shared" ref="E47:E48" ca="1" si="3">INDIRECT(ADDRESS(COLUMN()+1,ROW()-1,1,1,"Sheet1"))</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="27" t="str">
+      <c r="A48" s="41"/>
+      <c r="B48" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>进场确认</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DA699-A1C9-4E10-A66B-632385D49313}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B57E9-E7C7-4393-8755-70726BB9D8BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10920" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
@@ -645,9 +645,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,6 +659,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1533,7 +1533,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1549,46 +1549,46 @@
       <c r="E1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="33">
+      <c r="F1" s="38">
         <f ca="1">TODAY()-1</f>
-        <v>43497</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+        <v>43498</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="15"/>
       <c r="K1" s="16"/>
       <c r="L1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="33">
+      <c r="M1" s="38">
         <f ca="1">TODAY()</f>
-        <v>43498</v>
-      </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+        <v>43499</v>
+      </c>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="33">
+      <c r="S1" s="38">
         <f ca="1">NOW()</f>
-        <v>43498.589359953701</v>
-      </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+        <v>43499.473735069441</v>
+      </c>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
       <c r="V1" s="17"/>
       <c r="W1" s="13"/>
       <c r="X1" s="16"/>
       <c r="Y1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="33">
+      <c r="Z1" s="38">
         <f ca="1">TODAY()+1</f>
-        <v>43499</v>
-      </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
+        <v>43500</v>
+      </c>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="16"/>
       <c r="AE1" s="16"/>
@@ -1597,12 +1597,12 @@
       <c r="AH1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="33">
+      <c r="AI1" s="38">
         <f ca="1">TODAY()+1</f>
-        <v>43499</v>
-      </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
+        <v>43500</v>
+      </c>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="21"/>
       <c r="AN1" s="16"/>
@@ -1610,77 +1610,77 @@
       <c r="AP1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="33">
+      <c r="AQ1" s="38">
         <f ca="1">TODAY()+2</f>
-        <v>43500</v>
-      </c>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
+        <v>43501</v>
+      </c>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="37" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="37" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="36" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="37" t="s">
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="36" t="s">
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="37" t="s">
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
       <c r="AV2" s="3"/>
     </row>
     <row r="3" spans="1:48" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
         <v>74</v>
       </c>
       <c r="W8" s="25">
-        <v>43498.916666666664</v>
+        <v>43500.916666666664</v>
       </c>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
@@ -3183,6 +3183,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="L2:U2"/>
     <mergeCell ref="I2:K2"/>
@@ -3191,12 +3197,6 @@
     <mergeCell ref="AM2:AR2"/>
     <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AI1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:AU9">

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B569C-43E8-4616-8A4A-CE8BA3E9B7FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823746E-8E86-4330-9DD2-4C6F9E158536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,11 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离2-2
-靠2-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHSI1902003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,11 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离2-6
-靠2-15？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHSI1902004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,11 +205,6 @@
   </si>
   <si>
     <t>PASU5140415810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离2-6
-靠2-16？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHSI1902008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,258 +257,324 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离2-1
-靠2-4
-外五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡海
-已提罐
-已落箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>留
+信息已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未靠泊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无确报
+无理货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通索吉尔工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落箱
+等车送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危库
+等车提送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1902007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUARA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARBOUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WISDOM GRACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1907N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUAHKGSHA90003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕
+资料已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6109243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAU1224035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6101617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等改单
+等提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确认
+资料已给
+可换
+待付费
+待换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等付费
+等换单
+等靠泊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已排计划
+等提
+等送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船公司
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈小姐
+已报
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已靠泊
+已卸
+已放
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有确报
-有理货</t>
+有理货
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕
+资料已发
+已报关
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+计划已排
+等提
+等送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确认
+资料已给
+已换
+货单已送刘
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不留
+OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已靠泊
 已卸船
-已疏港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留
-信息已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈小姐
-已报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未靠泊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕
-资料已发
-已报关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等换单
-等靠泊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无确报
-无理货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李辰代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等靠泊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已靠泊
-已卸船
-已疏港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕
-资料已发
-已报关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易锦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡海
-提货单已有
+已疏港
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海？李？
+货单在哪
 未提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已靠泊
-已卸船
-已留箱
-计划已排
-已提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放已确认
-不可换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放未确认
-不可换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通索吉尔工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落箱
-等车送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危库
-等车提送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离1-29
-靠2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离2-9
-靠2-16？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电放确认
 已换
-提货单寄刘
-单拿提货单</t>
+货单在哪？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电放已确认
 已换
-提货单寄刘
-单拿提货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放未确认
-已换
-提货单寄单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHSI1902007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUARA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHANGHAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARBOUR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WISDOM GRACE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1907N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUAHKGSHA90003</t>
+货单在哪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留
+信息已发
+留成功
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已靠已卸已留
+计划已排
+已提
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海提罐
+已落老邱
+小李送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已靠泊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0209
+靠02151200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0201
+靠0204
+外五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0202
+靠0207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0206
+靠0216</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>离
-靠2-13？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
+靠0213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0206
+靠0217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0129
+靠0202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电放已确认
 已换
-提货单寄单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕
-资料已发
-未报关</t>
+提货单寄单
+OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>胡海
-提货单已寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等靠泊
-等留箱
-等提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕
-资料已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留？
-信息未发</t>
+货单寄单
+危库待提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已留
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海
+货单寄单
+已提
+OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,9 +582,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+    <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -586,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,12 +665,40 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -651,6 +727,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
@@ -709,29 +792,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:T8" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:T8" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V8" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A1:V8" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
+  <sortState ref="A2:V8">
+    <sortCondition ref="V4"/>
+  </sortState>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="25"/>
+    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1034,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C55FA-ED48-4C6C-B3AD-1FD3F9F9284F}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,11 +1137,13 @@
     <col min="7" max="7" width="5.625" customWidth="1"/>
     <col min="8" max="8" width="3.125" customWidth="1"/>
     <col min="9" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="3.125" customWidth="1"/>
-    <col min="11" max="17" width="10.625" customWidth="1"/>
+    <col min="10" max="11" width="3.125" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="17" width="10.625" customWidth="1"/>
+    <col min="22" max="22" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1082,107 +1172,119 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>69</v>
+      <c r="U1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43497.663194444445</v>
+    <row r="2" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43509.385416666664</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>90</v>
+      <c r="U2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="10">
+        <v>43512.583333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>43502.804166666669</v>
+    <row r="3" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43497.663194444445</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -1191,66 +1293,72 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>79</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="10">
+        <v>43514.375</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>43503.625</v>
+        <v>43507.443055555559</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>27</v>
@@ -1259,298 +1367,332 @@
         <v>33</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="10">
+        <v>43514.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>43502.804166666669</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>43507.443055555559</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" s="10">
+        <v>43514.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>43508</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V6" s="10">
+        <v>43514.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>43503.625</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>89</v>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="10">
+        <v>43514.375</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="8" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>43507.541666666664</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>43508</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="69" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>43509.385416666664</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="V8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="V2:V8">
+    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="today">
+      <formula>FLOOR(V2,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:T8">
+    <cfRule type="notContainsText" dxfId="2" priority="1" operator="notContains" text="OK">
+      <formula>ISERROR(SEARCH("OK",M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823746E-8E86-4330-9DD2-4C6F9E158536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E08514-D9BE-46B7-83BE-57D2DA93BC15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,29 +261,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>留
-信息已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未靠泊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无确报
-无理货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易锦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,19 +315,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄燕
 资料已发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>箱号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,23 +345,6 @@
   </si>
   <si>
     <t>NEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等改单
-等提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安排好了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放已确认
-资料已给
-可换
-待付费
-待换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -397,12 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已排计划
-等提
-等送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户
 OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,13 +387,6 @@
 资料已发
 已报关
 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李
-计划已排
-等提
-等送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,24 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡海？李？
-货单在哪
-未提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放确认
-已换
-货单在哪？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放已确认
-已换
-货单在哪？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>留
 信息已发
 留成功
@@ -498,18 +424,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡海提罐
-已落老邱
-小李送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无
 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已靠泊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,12 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡海
-货单寄单
-危库待提</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已留
 OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +485,177 @@
 货单寄单
 已提
 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没留成
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已疏港
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确认
+已换
+货单寄刘单拿
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提已落
+等送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+已提已落
+等送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海提罐
+已落老邱
+等小李送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+未提未送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放确认
+已换
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+货单在刘
+未提
+未送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRSU1510109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海
+货单寄单
+等改状态
+危库待提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等改单
+等提
+等送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAMU6000685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已靠泊
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已靠泊
+等换
+等检
+等送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李辰代理
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1902012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确认
+资料已给
+已付费
+已换
+待寄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITC QINGDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1908W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITTKSH1901774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRSU4710630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离
+靠02181200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已去换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留
+信息已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕
+资料已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等换单
+等报关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无确报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +753,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -682,7 +763,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC80000"/>
       </font>
     </dxf>
     <dxf>
@@ -694,7 +777,23 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC80000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC80000"/>
       </font>
     </dxf>
     <dxf>
@@ -780,6 +879,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC80000"/>
+      <color rgb="FF960000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -792,34 +897,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V8" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:V8" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V9" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A1:V9" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="等付费_x000a_等换单_x000a_等靠泊"/>
+        <filter val="等改单_x000a_等提_x000a_等送"/>
+        <filter val="落箱_x000a_等车送"/>
+        <filter val="危库_x000a_等车提送"/>
+        <filter val="已靠泊"/>
+        <filter val="已提已落_x000a_等送"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:V8">
-    <sortCondition ref="V4"/>
+    <sortCondition ref="V2"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="18"/>
-    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,11 +1238,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C55FA-ED48-4C6C-B3AD-1FD3F9F9284F}">
-  <dimension ref="A1:V8"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>23</v>
@@ -1205,81 +1322,81 @@
         <v>13</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>43509.385416666664</v>
+        <v>43503.625</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="V2" s="10">
-        <v>43512.583333333336</v>
+        <v>43514</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43497.663194444445</v>
       </c>
@@ -1308,46 +1425,46 @@
         <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V3" s="10">
-        <v>43514.375</v>
+        <v>43515</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>43507.443055555559</v>
       </c>
@@ -1376,46 +1493,46 @@
         <v>6</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="V4" s="10">
-        <v>43514.375</v>
+        <v>43515</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>43502.804166666669</v>
       </c>
@@ -1444,252 +1561,324 @@
         <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="V5" s="10">
-        <v>43514.375</v>
+        <v>43515</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>43508</v>
+    <row r="6" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>43507.541666666664</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="K6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="V6" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>43508</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" s="10">
-        <v>43514.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>43503.625</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="10">
-        <v>43514.375</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>43507.541666666664</v>
+        <v>43509.385416666664</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="K8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="V8" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="V8" s="10">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>43514.472222222219</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V9" s="10">
+        <v>43514.625</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="V2:V8">
-    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="today">
+  <conditionalFormatting sqref="V2:V9">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
       <formula>FLOOR(V2,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:T8">
-    <cfRule type="notContainsText" dxfId="2" priority="1" operator="notContains" text="OK">
+  <conditionalFormatting sqref="M2:U9">
+    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="OK">
       <formula>ISERROR(SEARCH("OK",M2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E08514-D9BE-46B7-83BE-57D2DA93BC15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25672804-73A1-473E-9D62-05E0CFA07CDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,19 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通索吉尔工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落箱
-等车送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>危库
 等车提送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,11 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄燕
-资料已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>箱号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,12 +327,6 @@
   </si>
   <si>
     <t>NEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等付费
-等换单
-等靠泊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,53 +481,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已提已落
-等送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李
-已提已落
-等送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡海提罐
-已落老邱
-等小李送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李
-未提未送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放确认
-已换
-OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李
-货单在刘
-未提
-未送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NRSU1510109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>延远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡海
-货单寄单
-等改状态
-危库待提</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -575,87 +509,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已靠泊
-等换
-等检
-等送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">李辰代理
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHSI1902012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKYO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITC QINGDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1908W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SITTKSH1901774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRSU4710630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离
+靠02181200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放确认
+已换
+货单寄刘单拿又返刘
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已靠
+已卸
+已放
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+货单在刘
+危库未提
+未送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落箱老邱
+等车送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确认
+已换
+0218寄刘
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+危库未提
+未送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海
+货单寄单
+等改单
+危库待提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+已提已落
+已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海提罐
+已落老邱
+小李已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通
+申请已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已换
+已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1902015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOKOHAMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANTAU BRIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASU5140415880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMU6109182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留
+信息未发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0222靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等换单
+等靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无确报
+无理货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕
+资料已发
+未报关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通索吉尔工厂
+已通知
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海
+已排计划
+已提已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延远
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0219
+靠0221？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHSI1902017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINOTRANS QINGDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1907W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASU5140415720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHMU0010035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离
+靠0221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留
+信息未发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0221靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老邱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电放已确认
 资料已给
-已付费
-已换
-待寄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKYO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SITC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SITC QINGDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1908W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SITTKSH1901774</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRSU4710630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离
-靠02181200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已去换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留
-信息已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕
-资料已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等换单
-等报关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无确报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡海</t>
+不可换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确信
+资料已给
+不可换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李辰代理
+20送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛
+已通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,11 +845,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -733,9 +863,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,48 +880,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC80000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC80000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC80000"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
@@ -897,45 +989,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V9" totalsRowShown="0" headerRowDxfId="28">
-  <autoFilter ref="A1:V9" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="等付费_x000a_等换单_x000a_等靠泊"/>
-        <filter val="等改单_x000a_等提_x000a_等送"/>
-        <filter val="落箱_x000a_等车送"/>
-        <filter val="危库_x000a_等车提送"/>
-        <filter val="已靠泊"/>
-        <filter val="已提已落_x000a_等送"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:V8">
-    <sortCondition ref="V2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:V11" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
+  <sortState ref="A2:V9">
+    <sortCondition ref="B8"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="22"/>
-    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,11 +1320,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C55FA-ED48-4C6C-B3AD-1FD3F9F9284F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1289,51 +1370,51 @@
         <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>78</v>
+      <c r="V1" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>43503.625</v>
+      <c r="A2" s="1">
+        <v>43497.663194444445</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1345,137 +1426,133 @@
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V2" s="10">
-        <v>43514</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43497.663194444445</v>
+        <v>43507.443055555559</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="10">
-        <v>43515</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>43507.443055555559</v>
+      <c r="A4" s="1">
+        <v>43503.625</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>27</v>
@@ -1483,57 +1560,55 @@
       <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>2</v>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="10">
-        <v>43515</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>43502.804166666669</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1551,57 +1626,55 @@
       <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V5" s="10">
-        <v>43515</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="V5" s="9"/>
     </row>
     <row r="6" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>43507.541666666664</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1619,123 +1692,121 @@
       <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="S6" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V6" s="10">
-        <v>43515</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="7" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>43508</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="S7" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V7" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>43509.385416666664</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1753,131 +1824,254 @@
       <c r="F8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" s="10">
-        <v>43515</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>43514.472222222219</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" ht="72" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>43515.59097222222</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="G10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="I10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="V9" s="10">
-        <v>43514.625</v>
-      </c>
+      <c r="U10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>43516.42291666667</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="V2:V9">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
-      <formula>FLOOR(V2,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:U9">
+  <conditionalFormatting sqref="M2:U11">
     <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="OK">
       <formula>ISERROR(SEARCH("OK",M2))</formula>
     </cfRule>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25672804-73A1-473E-9D62-05E0CFA07CDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25924540-7D3E-4EB1-A5F0-F6EAF2116B36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>留箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,16 +253,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>危库
-等车提送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,28 +543,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李
-货单在刘
-危库未提
-未送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落箱老邱
-等车送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电放已确认
 已换
 0218寄刘
 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李
-危库未提
-未送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -602,11 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南通
-申请已发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已换
 已送
 OK</t>
@@ -647,14 +611,6 @@
   <si>
     <t>留
 信息未发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0222靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,11 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离0219
-靠0221？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHSI1902017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,24 +685,11 @@
   </si>
   <si>
     <t>SHMU0010035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离
-靠0221</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>留
 信息未发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0221靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -775,17 +713,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李
+货单在刘
+已提已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通
+申请已发
+已进场
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李
+危库
+已提已送
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>李辰代理
-20送</t>
+已送
+OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>青岛
-已通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等送</t>
+申请已发
+已进场
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通
+申请未发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离
+靠02230230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离0219
+靠02221500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未靠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,92 +859,92 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -989,34 +966,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:V11" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
   <sortState ref="A2:V9">
     <sortCondition ref="B8"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,8 +1300,8 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1346,34 +1323,34 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>8</v>
@@ -1403,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,64 +1391,64 @@
         <v>43497.663194444445</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="V2" s="9"/>
     </row>
@@ -1480,64 +1457,64 @@
         <v>43507.443055555559</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="V3" s="9"/>
     </row>
@@ -1546,64 +1523,64 @@
         <v>43503.625</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="V4" s="9"/>
     </row>
@@ -1612,64 +1589,64 @@
         <v>43502.804166666669</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="V5" s="9"/>
     </row>
@@ -1678,64 +1655,64 @@
         <v>43507.541666666664</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V6" s="9"/>
     </row>
@@ -1744,64 +1721,64 @@
         <v>43508</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V7" s="9"/>
     </row>
@@ -1810,64 +1787,64 @@
         <v>43509.385416666664</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="Q8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V8" s="9"/>
     </row>
@@ -1876,64 +1853,64 @@
         <v>43514.472222222219</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="M9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="Q9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V9" s="9"/>
     </row>
@@ -1942,64 +1919,64 @@
         <v>43515.59097222222</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="K10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="P10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="V10" s="9"/>
     </row>
@@ -2008,71 +1985,71 @@
         <v>43516.42291666667</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="T11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="U11" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="V11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M2:U11">
-    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="OK">
+    <cfRule type="notContainsText" dxfId="23" priority="1" operator="notContains" text="OK">
       <formula>ISERROR(SEARCH("OK",M2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25924540-7D3E-4EB1-A5F0-F6EAF2116B36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FC61E-5AB7-4A5B-8AF1-1C14FF839B90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,11 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>留
-信息未发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等换单
 等靠</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,28 +683,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>留
-信息未发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡海</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>老邱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放已确认
-资料已给
-不可换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电放已确信
-资料已给
-不可换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,6 +741,18 @@
   </si>
   <si>
     <t>未靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留
+信息已发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电放已确认
+资料已给
+已付待换
+待送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1291,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1442,10 +1432,10 @@
         <v>77</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>93</v>
@@ -1511,7 +1501,7 @@
         <v>117</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>93</v>
@@ -1574,10 +1564,10 @@
         <v>77</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>93</v>
@@ -1640,10 +1630,10 @@
         <v>44</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>93</v>
@@ -1841,7 +1831,7 @@
         <v>116</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>93</v>
@@ -1904,10 +1894,10 @@
         <v>77</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>93</v>
@@ -1949,34 +1939,34 @@
         <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="V10" s="9"/>
     </row>
@@ -1985,64 +1975,64 @@
         <v>43516.42291666667</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="U11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V11" s="9"/>
     </row>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FC61E-5AB7-4A5B-8AF1-1C14FF839B90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D82AC2-3C84-4A1B-BB09-F543E37A6FC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,22 +609,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等换单
-等靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无确报
-无理货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄燕
-资料已发
-未报关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,19 +724,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>留
-信息已发</t>
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">电放已确认
+已换已寄刘
+OK
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电放已确认
-资料已给
-已付待换
-待送</t>
+已换已寄单
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,92 +839,92 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -956,34 +946,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:V11" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
   <sortState ref="A2:V9">
     <sortCondition ref="B8"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1290,8 +1280,8 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,10 +1422,10 @@
         <v>77</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>93</v>
@@ -1501,7 +1491,7 @@
         <v>117</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>93</v>
@@ -1564,10 +1554,10 @@
         <v>77</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>93</v>
@@ -1630,10 +1620,10 @@
         <v>44</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>93</v>
@@ -1831,7 +1821,7 @@
         <v>116</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>93</v>
@@ -1894,10 +1884,10 @@
         <v>77</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>93</v>
@@ -1939,34 +1929,34 @@
         <v>34</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="V10" s="9"/>
     </row>
@@ -1975,71 +1965,71 @@
         <v>43516.42291666667</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="V11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M2:U11">
-    <cfRule type="notContainsText" dxfId="23" priority="1" operator="notContains" text="OK">
+    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="OK">
       <formula>ISERROR(SEARCH("OK",M2))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/co-honour/进口操作总览.xlsx
+++ b/co-honour/进口操作总览.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D82AC2-3C84-4A1B-BB09-F543E37A6FC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F41CE443-0244-4A1D-A490-200CC15974CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
   <si>
     <t>确报理货</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,11 +744,18 @@
     <t>等排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>电放已确认
+已换
+提货单寄单
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
@@ -835,96 +841,96 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="mmdd\ hhmm"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="mmdd\ hh"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="mm/dd\ hh:mm"/>
-      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,34 +952,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21BD9BAE-32AC-47F7-AE15-FDC61DAC208C}" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:V11" xr:uid="{3E59132E-8425-4289-A6F0-66B026E4C476}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:V11" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:V11"/>
   <sortState ref="A2:V9">
     <sortCondition ref="B8"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{DD8C202E-7EF2-4776-8C66-13705F6DBBB7}" name="日期" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{0F9A3325-FBF1-4E64-A259-7B9033831B78}" name="编号" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{72B51D41-DF62-4CEA-A07D-7BC4B0E9E7E7}" name="客户" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{BE9B23BF-B615-40AE-89AD-E339CC8399A1}" name="起运港" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{520B0FB5-BFA1-4A71-8183-3074C0BB1C59}" name="目的港" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{7BB1ACA9-79E9-4C53-92F8-17A4581C6B32}" name="船公司" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{1F24B768-6264-44C0-AEA3-532BC4C86E95}" name="船名" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{3FA2BC85-DF7B-41E8-AEB0-A4177DC78FF2}" name="航次" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{02ED7EF4-5E64-4C60-9C8E-9880202DAF76}" name="提单号" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0C008F45-7C94-4EBB-95F9-D11796C34F0D}" name="箱号" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{F4D170AA-7529-49DC-9550-FF803140009E}" name="箱型量" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{51341F6A-9E0A-4054-8FC0-BF5AE25FD6AA}" name="靠离" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E4B106F2-52C6-42E1-9239-451DA7FB8FF7}" name="危申报" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{756CFAF9-C4A3-4583-A892-902DE177CC73}" name="换单" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{B51B7572-3E08-4421-BC50-54D3C5189A45}" name="留箱" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{04AAA43E-53A7-447E-B876-6F4F91091079}" name="港区动态" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{CA20B666-17A5-4D44-8451-5747341616FF}" name="确报理货" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{098453C0-1820-4A64-B5C3-B88383668B56}" name="报关" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{2E8D20F5-D86B-4FA6-B4D9-3029E1F19740}" name="车队" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{3CF8B871-14C6-4DE1-AF9E-C45072B1B732}" name="堆场" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{2F610586-2915-4CB6-A681-DC4AE9F02B53}" name="当前状态" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FE268A0C-5517-40BF-ADF8-87DB5A970528}" name="NEXT" dataDxfId="1"/>
+    <tableColumn id="1" name="日期" dataDxfId="21"/>
+    <tableColumn id="17" name="编号" dataDxfId="20"/>
+    <tableColumn id="16" name="客户" dataDxfId="19"/>
+    <tableColumn id="15" name="起运港" dataDxfId="18"/>
+    <tableColumn id="14" name="目的港" dataDxfId="17"/>
+    <tableColumn id="22" name="船公司" dataDxfId="16"/>
+    <tableColumn id="23" name="船名" dataDxfId="15"/>
+    <tableColumn id="24" name="航次" dataDxfId="14"/>
+    <tableColumn id="25" name="提单号" dataDxfId="13"/>
+    <tableColumn id="2" name="箱号" dataDxfId="12"/>
+    <tableColumn id="20" name="箱型量" dataDxfId="11"/>
+    <tableColumn id="4" name="靠离" dataDxfId="10"/>
+    <tableColumn id="5" name="危申报" dataDxfId="9"/>
+    <tableColumn id="6" name="换单" dataDxfId="8"/>
+    <tableColumn id="12" name="留箱" dataDxfId="7"/>
+    <tableColumn id="7" name="港区动态" dataDxfId="6"/>
+    <tableColumn id="8" name="确报理货" dataDxfId="5"/>
+    <tableColumn id="9" name="报关" dataDxfId="4"/>
+    <tableColumn id="10" name="车队" dataDxfId="3"/>
+    <tableColumn id="11" name="堆场" dataDxfId="2"/>
+    <tableColumn id="13" name="当前状态" dataDxfId="1"/>
+    <tableColumn id="3" name="NEXT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1275,13 +1281,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880C55FA-ED48-4C6C-B3AD-1FD3F9F9284F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1671,7 +1677,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>79</v>
@@ -2029,7 +2035,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M2:U11">
-    <cfRule type="notContainsText" dxfId="0" priority="1" operator="notContains" text="OK">
+    <cfRule type="notContainsText" dxfId="23" priority="1" operator="notContains" text="OK">
       <formula>ISERROR(SEARCH("OK",M2))</formula>
     </cfRule>
   </conditionalFormatting>
